--- a/Income/COF_inc.xlsx
+++ b/Income/COF_inc.xlsx
@@ -1719,16 +1719,16 @@
         <v>1.0015</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.0091</v>
+        <v>0.9608</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.9624</v>
+        <v>0.9178</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.9231</v>
+        <v>0.8827</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.8841</v>
+        <v>0.8468</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.8443</v>
@@ -1973,16 +1973,16 @@
         <v>0.1125</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.056</v>
+        <v>0.0533</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-0.0072</v>
+        <v>-0.0069</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1044</v>
+        <v>0.0998</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2126</v>
+        <v>0.2036</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1998</v>
@@ -2100,16 +2100,16 @@
         <v>0.0835</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0348</v>
+        <v>0.032</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-0.0021</v>
+        <v>-0.0031</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0796</v>
+        <v>0.0751</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1616</v>
+        <v>0.1538</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1595</v>
@@ -2227,16 +2227,16 @@
         <v>0.5685</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.5463</v>
+        <v>0.5473</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.5275</v>
+        <v>0.5293</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.5216</v>
+        <v>0.5236</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4621</v>
+        <v>0.4665</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4681</v>
@@ -3501,16 +3501,16 @@
         <v>0.5934</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.5741</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5559</v>
+        <v>0.5564</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.5492</v>
+        <v>0.5499</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.4895</v>
+        <v>0.4928</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.4931</v>
